--- a/AM10 Final Project -R Code/Data/monthly_covid_confirmed_cases_selected.xlsx
+++ b/AM10 Final Project -R Code/Data/monthly_covid_confirmed_cases_selected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18224518aec7d621/LBS/Git/AM10_SG12/AM10 Final Project -R Code/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{DB5E85A7-1284-4DCA-9BD2-C82C13F0FDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AE133E6E-F0D6-414C-AB55-E7A4F4B56AE8}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="8_{DB5E85A7-1284-4DCA-9BD2-C82C13F0FDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{77B807B5-9ED4-48EE-A7F6-4541786A3257}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{818E26F2-A9B4-4621-A696-D9EDD1A51C37}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>2020-01-31</t>
   </si>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>india</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955FAB71-0615-49EA-B61C-B2674C181D9B}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -517,7 +521,7 @@
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
@@ -542,17 +546,20 @@
       <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -580,17 +587,20 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
         <v>6</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>7</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -618,17 +628,20 @@
       <c r="I3" s="2">
         <v>30</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
         <v>60</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>18</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -656,17 +669,20 @@
       <c r="I4" s="2">
         <v>29651</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
+        <v>15295</v>
+      </c>
+      <c r="K4" s="2">
         <v>164554</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>4532</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>4578</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -694,17 +710,20 @@
       <c r="I5" s="2">
         <v>137469</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
+        <v>34644</v>
+      </c>
+      <c r="K5" s="2">
         <v>875289</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>2189</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>73583</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -732,17 +751,20 @@
       <c r="I6" s="2">
         <v>87240</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
+        <v>8977</v>
+      </c>
+      <c r="K6" s="2">
         <v>730475</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>439</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>420278</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -770,17 +792,20 @@
       <c r="I7" s="2">
         <v>29151</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
+        <v>2969</v>
+      </c>
+      <c r="K7" s="2">
         <v>820168</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>582</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>869755</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -808,17 +833,20 @@
       <c r="I8" s="2">
         <v>18760</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
+        <v>7706</v>
+      </c>
+      <c r="K8" s="2">
         <v>1904462</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>8536</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>1241907</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -846,17 +874,20 @@
       <c r="I9" s="2">
         <v>32166</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
+        <v>15809</v>
+      </c>
+      <c r="K9" s="2">
         <v>1502149</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>9367</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>1252209</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -884,17 +915,20 @@
       <c r="I10" s="2">
         <v>111689</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
+        <v>36966</v>
+      </c>
+      <c r="K10" s="2">
         <v>1193898</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>1393</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>915211</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -922,17 +956,20 @@
       <c r="I11" s="2">
         <v>543589</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
+        <v>319947</v>
+      </c>
+      <c r="K11" s="2">
         <v>1856366</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>519</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>739136</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -960,23 +997,26 @@
       <c r="I12" s="2">
         <v>420987</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
+        <v>98195</v>
+      </c>
+      <c r="K12" s="2">
         <v>2312375</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>174</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>395100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="S15" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="S16" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T16" t="s">
         <v>23</v>
       </c>
     </row>
